--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N2">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q2">
-        <v>4.561692359773334</v>
+        <v>18.491515361298</v>
       </c>
       <c r="R2">
-        <v>41.05523123796</v>
+        <v>166.423638251682</v>
       </c>
       <c r="S2">
-        <v>0.0007899645438576015</v>
+        <v>0.00233707003644631</v>
       </c>
       <c r="T2">
-        <v>0.0007899645438576015</v>
+        <v>0.002337070036446311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q3">
-        <v>43.52323605154978</v>
+        <v>63.73585840971533</v>
       </c>
       <c r="R3">
-        <v>391.709124463948</v>
+        <v>573.622725687438</v>
       </c>
       <c r="S3">
-        <v>0.007537074095101327</v>
+        <v>0.00805532494369215</v>
       </c>
       <c r="T3">
-        <v>0.007537074095101327</v>
+        <v>0.008055324943692151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N4">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q4">
-        <v>16.23031077182978</v>
+        <v>42.21023824976467</v>
       </c>
       <c r="R4">
-        <v>146.072796946468</v>
+        <v>379.8921442478821</v>
       </c>
       <c r="S4">
-        <v>0.002810660832501364</v>
+        <v>0.005334786312389081</v>
       </c>
       <c r="T4">
-        <v>0.002810660832501363</v>
+        <v>0.005334786312389081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N5">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O5">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P5">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q5">
-        <v>3.462667540972</v>
+        <v>9.312284855467999</v>
       </c>
       <c r="R5">
-        <v>31.164007868748</v>
+        <v>83.810563699212</v>
       </c>
       <c r="S5">
-        <v>0.0005996424942322037</v>
+        <v>0.001176943126690259</v>
       </c>
       <c r="T5">
-        <v>0.0005996424942322036</v>
+        <v>0.001176943126690259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N6">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q6">
-        <v>374.2803148525666</v>
+        <v>1036.05028595763</v>
       </c>
       <c r="R6">
-        <v>3368.5228336731</v>
+        <v>9324.452573618668</v>
       </c>
       <c r="S6">
-        <v>0.06481545770264936</v>
+        <v>0.130942328535764</v>
       </c>
       <c r="T6">
-        <v>0.06481545770264938</v>
+        <v>0.130942328535764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q7">
         <v>3571.019088535392</v>
@@ -883,10 +883,10 @@
         <v>32139.17179681853</v>
       </c>
       <c r="S7">
-        <v>0.6184061183647687</v>
+        <v>0.4513270842508204</v>
       </c>
       <c r="T7">
-        <v>0.6184061183647687</v>
+        <v>0.4513270842508204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N8">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q8">
-        <v>1331.673718158692</v>
+        <v>2364.972721518408</v>
       </c>
       <c r="R8">
-        <v>11985.06346342823</v>
+        <v>21284.75449366567</v>
       </c>
       <c r="S8">
-        <v>0.2306106897100486</v>
+        <v>0.298899618364516</v>
       </c>
       <c r="T8">
-        <v>0.2306106897100486</v>
+        <v>0.298899618364516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N9">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O9">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P9">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q9">
-        <v>284.10690490517</v>
+        <v>521.7525550999133</v>
       </c>
       <c r="R9">
-        <v>2556.96214414653</v>
+        <v>4695.772995899219</v>
       </c>
       <c r="S9">
-        <v>0.04919980652780354</v>
+        <v>0.06594225725358385</v>
       </c>
       <c r="T9">
-        <v>0.04919980652780354</v>
+        <v>0.06594225725358384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N10">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q10">
-        <v>5.805299832766667</v>
+        <v>23.66035424598</v>
       </c>
       <c r="R10">
-        <v>52.24769849490001</v>
+        <v>212.94318821382</v>
       </c>
       <c r="S10">
-        <v>0.001005324487637304</v>
+        <v>0.002990339292350113</v>
       </c>
       <c r="T10">
-        <v>0.001005324487637304</v>
+        <v>0.002990339292350113</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q11">
-        <v>55.38853018665223</v>
+        <v>81.55161752193112</v>
       </c>
       <c r="R11">
-        <v>498.4967716798701</v>
+        <v>733.9645576973801</v>
       </c>
       <c r="S11">
-        <v>0.009591829420521435</v>
+        <v>0.01030698880055749</v>
       </c>
       <c r="T11">
-        <v>0.009591829420521437</v>
+        <v>0.01030698880055749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N12">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q12">
-        <v>20.65501418735223</v>
+        <v>54.0090506528689</v>
       </c>
       <c r="R12">
-        <v>185.89512768617</v>
+        <v>486.0814558758202</v>
       </c>
       <c r="S12">
-        <v>0.003576902512052512</v>
+        <v>0.006825991894742739</v>
       </c>
       <c r="T12">
-        <v>0.003576902512052512</v>
+        <v>0.006825991894742738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N13">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O13">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P13">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q13">
-        <v>4.406659132430001</v>
+        <v>11.91530029934667</v>
       </c>
       <c r="R13">
-        <v>39.65993219187001</v>
+        <v>107.23770269412</v>
       </c>
       <c r="S13">
-        <v>0.000763116886658918</v>
+        <v>0.001505928030276268</v>
       </c>
       <c r="T13">
-        <v>0.0007631168866589179</v>
+        <v>0.001505928030276268</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N14">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q14">
-        <v>4.000512291406667</v>
+        <v>15.703385042421</v>
       </c>
       <c r="R14">
-        <v>36.00461062266</v>
+        <v>141.330465381789</v>
       </c>
       <c r="S14">
-        <v>0.0006927829889069561</v>
+        <v>0.001984689190493967</v>
       </c>
       <c r="T14">
-        <v>0.0006927829889069562</v>
+        <v>0.001984689190493968</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.542951</v>
       </c>
       <c r="O15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q15">
-        <v>38.16900111928422</v>
+        <v>54.125835879939</v>
       </c>
       <c r="R15">
-        <v>343.521010073558</v>
+        <v>487.1325229194511</v>
       </c>
       <c r="S15">
-        <v>0.006609862125861087</v>
+        <v>0.00684075192114146</v>
       </c>
       <c r="T15">
-        <v>0.006609862125861087</v>
+        <v>0.00684075192114146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N16">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q16">
-        <v>14.23365554166423</v>
+        <v>35.84582501852101</v>
       </c>
       <c r="R16">
-        <v>128.102899874978</v>
+        <v>322.6124251666891</v>
       </c>
       <c r="S16">
-        <v>0.002464892921441048</v>
+        <v>0.004530413108155486</v>
       </c>
       <c r="T16">
-        <v>0.002464892921441048</v>
+        <v>0.004530413108155485</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N17">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O17">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P17">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q17">
-        <v>3.036689668262</v>
+        <v>7.908188801885999</v>
       </c>
       <c r="R17">
-        <v>27.330207014358</v>
+        <v>71.173699216974</v>
       </c>
       <c r="S17">
-        <v>0.0005258743859581273</v>
+        <v>0.0009994849383804471</v>
       </c>
       <c r="T17">
-        <v>0.0005258743859581273</v>
+        <v>0.0009994849383804468</v>
       </c>
     </row>
   </sheetData>
